--- a/data/Westerns/Exp33_gel01_quant.xlsx
+++ b/data/Westerns/Exp33_gel01_quant.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/jsimcox/General/7_Lab Members/Raghav/lab_notebook/projects/TFEB/WB_general/2022_0530_Exp33_General/quant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjain63/Documents/GitHub/Hepatic-TFEB/data/Westerns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C26477-C6A0-794F-A10F-626E415EEAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4435291-9824-324F-A8ED-57400883C627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20600" yWindow="0" windowWidth="20360" windowHeight="23040" activeTab="3" xr2:uid="{CABA9720-AF0B-034A-92EA-A6AD0BB96515}"/>
+    <workbookView xWindow="20600" yWindow="500" windowWidth="20360" windowHeight="20820" activeTab="1" xr2:uid="{CABA9720-AF0B-034A-92EA-A6AD0BB96515}"/>
   </bookViews>
   <sheets>
     <sheet name="volume" sheetId="1" r:id="rId1"/>
-    <sheet name="r" sheetId="2" r:id="rId2"/>
+    <sheet name="LAMP2" sheetId="2" r:id="rId2"/>
     <sheet name="volume_LIPA" sheetId="3" r:id="rId3"/>
     <sheet name="r_LIPA" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -1571,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40988F22-1F6C-8A4D-B371-AAEF4D214186}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2041,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C8CCF7-260B-7343-9F5A-FF48ABE8073F}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
